--- a/dataset/Project.xlsx
+++ b/dataset/Project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/priyakaneria/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/priyakaneria/Downloads/ma4615-fa22-final-project-boston-three-party/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F31BED59-9D7E-884E-A37E-11621D3335FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C749C7FD-A813-AF4A-A0B8-80A11BFAD504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="28080" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="520" windowWidth="28080" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -947,7 +947,7 @@
   <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
